--- a/data/trans_media/P34F2H-Edad-trans_media.xlsx
+++ b/data/trans_media/P34F2H-Edad-trans_media.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,98</t>
+          <t>0,78; 0,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 0,88</t>
+          <t>0,73; 0,89</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,05</t>
+          <t>0,79; 1,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,92</t>
+          <t>0,75; 0,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 0,97</t>
+          <t>0,8; 0,96</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 0,86</t>
+          <t>0,68; 0,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,15</t>
+          <t>0,91; 1,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 0,98</t>
+          <t>0,77; 0,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,02</t>
+          <t>0,87; 1,02</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,84</t>
+          <t>0,67; 0,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 0,91</t>
+          <t>0,79; 0,91</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,92</t>
+          <t>0,76; 0,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,79</t>
+          <t>0,68; 0,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/P34F2H-Edad-trans_media.xlsx
+++ b/data/trans_media/P34F2H-Edad-trans_media.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,87</t>
+          <t>0,63; 0,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 0,98</t>
+          <t>0,76; 0,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,89</t>
+          <t>0,72; 0,88</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,06</t>
+          <t>0,8; 1,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 0,96</t>
+          <t>0,79; 0,96</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,0</t>
+          <t>0,78; 1,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,86</t>
+          <t>0,68; 0,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,89</t>
+          <t>0,75; 0,9</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,13</t>
+          <t>0,9; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,97</t>
+          <t>0,79; 0,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,02</t>
+          <t>0,87; 1,03</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 0,91</t>
+          <t>0,78; 0,91</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 0,93</t>
+          <t>0,75; 0,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,74</t>
+          <t>0,56; 0,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,8</t>
+          <t>0,67; 0,8</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 0,94</t>
+          <t>0,86; 0,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
